--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_MSDynamics_EN.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_MSDynamics_EN.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2DE3CE-8F03-4B66-91A1-A1EF0185AA5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96C8B8B-33DA-4DEE-8366-45A6E8A0763D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Field_type">Specifications!$I$6:$I$24,Specifications!$M$6:$M$24,Specifications!$Q$6:$Q$24,Specifications!$U$6:$U$24,Specifications!$Y$6:$Y$24,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$Y$27:$Y$35,Specifications!$U$27:$U$35,Specifications!$Q$27:$Q$35,Specifications!$M$27:$M$35,Specifications!$I$27:$I$35,Specifications!#REF!</definedName>
+    <definedName name="Field_type">Specifications!$I$6:$I$28,Specifications!$M$6:$M$28,Specifications!$Q$6:$Q$28,Specifications!$U$6:$U$28,Specifications!$Y$6:$Y$28,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$Y$31:$Y$36,Specifications!$U$31:$U$36,Specifications!$Q$31:$Q$36,Specifications!$M$31:$M$36,Specifications!$I$31:$I$36,Specifications!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="72">
   <si>
     <t>Website</t>
   </si>
@@ -226,6 +226,30 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>(= Fields with automatic value)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Example Not used field</t>
+  </si>
+  <si>
+    <t>Not Used Field</t>
+  </si>
+  <si>
+    <t>Not_Used_Field</t>
+  </si>
+  <si>
+    <t>Example Mandatory field</t>
+  </si>
+  <si>
+    <t>Mandatory field</t>
+  </si>
+  <si>
+    <t>Mandatory_field</t>
   </si>
 </sst>
 </file>
@@ -345,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -364,17 +388,6 @@
       <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -426,7 +439,7 @@
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
       <bottom style="thin">
@@ -444,46 +457,7 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
       <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
@@ -496,48 +470,87 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFFE6C36"/>
       </left>
       <right/>
@@ -550,31 +563,7 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
+      <left style="thin">
         <color rgb="FFFE6C36"/>
       </left>
       <right/>
@@ -583,71 +572,6 @@
       </top>
       <bottom style="thick">
         <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,19 +653,6 @@
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
@@ -1075,32 +986,6 @@
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
@@ -1184,186 +1069,783 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="73">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightHorizontal">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightHorizontal">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1570,11 +2052,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="firstColumn" dxfId="14"/>
-      <tableStyleElement type="firstRowStripe" dxfId="13"/>
-      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="72"/>
+      <tableStyleElement type="headerRow" dxfId="71"/>
+      <tableStyleElement type="firstColumn" dxfId="70"/>
+      <tableStyleElement type="firstRowStripe" dxfId="69"/>
+      <tableStyleElement type="secondRowStripe" dxfId="68"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1694,13 +2176,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2061,10 +2543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,8 +2568,8 @@
     <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
@@ -2097,1112 +2579,1187 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="34"/>
-      <c r="K2" s="34"/>
+    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
-    <row r="3" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:33" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="G3" s="87" t="s">
+      <c r="E3" s="16"/>
+      <c r="G3" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="87" t="s">
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="O3" s="87" t="s">
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="O3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="S3" s="81" t="s">
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="S3" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="82"/>
-      <c r="U3" s="83"/>
-      <c r="W3" s="84" t="s">
+      <c r="T3" s="66"/>
+      <c r="U3" s="67"/>
+      <c r="W3" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="86"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="70"/>
     </row>
-    <row r="4" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="79" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="31" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="43" t="s">
+      <c r="O5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="45" t="s">
+      <c r="Q5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="55" t="s">
+      <c r="S5" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="56" t="s">
+      <c r="T5" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="57" t="s">
+      <c r="U5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="55" t="s">
+      <c r="W5" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="56" t="s">
+      <c r="X5" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="Y5" s="57" t="s">
+      <c r="Y5" s="43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="27"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="47"/>
+    <row r="6" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="G6" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>19</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="47"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="47"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="63"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="63"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="33"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="33"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="49"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="49"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="19"/>
+      <c r="G7" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="33"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="33"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="49"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="49"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="19"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="33"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="33"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="49"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="49"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="27"/>
-      <c r="G7" s="46" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="19"/>
+      <c r="G9" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="47"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="47"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="63"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="63"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="33"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="33"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="49"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="49"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="27"/>
-      <c r="G8" s="46" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="19"/>
+      <c r="G10" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="46" t="s">
+      <c r="J10" s="1"/>
+      <c r="K10" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="46"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="47"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="63"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="63"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="33"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="49"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="49"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="28"/>
-      <c r="G9" s="48" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="19"/>
+      <c r="G11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="48" t="s">
+      <c r="J11" s="1"/>
+      <c r="K11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="49" t="s">
+      <c r="M11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="48"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="49"/>
-      <c r="S9" s="62" t="s">
+      <c r="O11" s="34"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="35"/>
+      <c r="S11" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="T11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="U9" s="63" t="s">
+      <c r="U11" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="64"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="63"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="49"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="28"/>
-      <c r="G10" s="48" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="19"/>
+      <c r="G12" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I12" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="48" t="s">
+      <c r="J12" s="1"/>
+      <c r="K12" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="49" t="s">
+      <c r="M12" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="48"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="49"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="63"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="63"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="35"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="49"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="49"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="28"/>
-      <c r="G11" s="48" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="19"/>
+      <c r="G13" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="49" t="s">
+      <c r="I13" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="48" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="49" t="s">
+      <c r="M13" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="48"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="49"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="63"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="63"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="35"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="49"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="49"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="28"/>
-      <c r="G12" s="48" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="19"/>
+      <c r="G14" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="I14" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="49"/>
-      <c r="O12" s="48" t="s">
+      <c r="J14" s="1"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="35"/>
+      <c r="O14" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q12" s="49" t="s">
+      <c r="Q14" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="S12" s="64"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="63"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="63"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="49"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="49"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="28"/>
-      <c r="G13" s="46" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="19"/>
+      <c r="G15" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="49" t="s">
+      <c r="I15" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="46" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="49" t="s">
+      <c r="M15" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="46" t="s">
+      <c r="O15" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Q13" s="49" t="s">
+      <c r="Q15" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="S13" s="64"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="63"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="63"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="49"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="49"/>
     </row>
-    <row r="14" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+    <row r="16" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="G14" s="50" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="19"/>
+      <c r="F16"/>
+      <c r="G16" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H16" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="49" t="s">
+      <c r="I16" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="50" t="s">
+      <c r="J16" s="1"/>
+      <c r="K16" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="41" t="s">
+      <c r="L16" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="49" t="s">
+      <c r="M16" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="50"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="49"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="66"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="66"/>
+      <c r="N16"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="35"/>
+      <c r="R16"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="52"/>
+      <c r="V16"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="28"/>
-      <c r="G15" s="51" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="19"/>
+      <c r="G17" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="49" t="s">
+      <c r="I17" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="51" t="s">
+      <c r="J17" s="1"/>
+      <c r="K17" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M15" s="49" t="s">
+      <c r="M17" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="51" t="s">
+      <c r="O17" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" s="49" t="s">
+      <c r="Q17" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="S15" s="64"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="63"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="63"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="49"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="49"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="28"/>
-      <c r="G16" s="48" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="19"/>
+      <c r="G18" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="49" t="s">
+      <c r="I18" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="48" t="s">
+      <c r="J18" s="1"/>
+      <c r="K18" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="49" t="s">
+      <c r="M18" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O16" s="48"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="49"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="61"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="63"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="35"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="47"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="49"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="28"/>
-      <c r="G17" s="48" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="19"/>
+      <c r="G19" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="49" t="s">
+      <c r="I19" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="48" t="s">
+      <c r="J19" s="1"/>
+      <c r="K19" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M17" s="49" t="s">
+      <c r="M19" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="48" t="s">
+      <c r="O19" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q17" s="49" t="s">
+      <c r="Q19" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="S17" s="64"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="63"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="63"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="49"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="49"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="28"/>
-      <c r="G18" s="48" t="s">
+      <c r="B20" s="63"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="19"/>
+      <c r="G20" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="I20" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="48" t="s">
+      <c r="J20" s="1"/>
+      <c r="K20" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M18" s="49" t="s">
+      <c r="M20" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="48" t="s">
+      <c r="O20" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="49" t="s">
+      <c r="Q20" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="S18" s="64"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="63"/>
-      <c r="W18" s="64"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="63"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="49"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="49"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="28"/>
-      <c r="G19" s="48" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="19"/>
+      <c r="G21" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="49" t="s">
+      <c r="I21" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="48" t="s">
+      <c r="J21" s="1"/>
+      <c r="K21" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="49" t="s">
+      <c r="M21" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="48" t="s">
+      <c r="O21" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="P21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q19" s="49" t="s">
+      <c r="Q21" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="S19" s="64"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="63"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="63"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="49"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="49"/>
     </row>
-    <row r="20" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+    <row r="22" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="G20" s="50" t="s">
+      <c r="B22" s="63"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="19"/>
+      <c r="F22"/>
+      <c r="G22" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H22" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="49" t="s">
+      <c r="I22" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="50" t="s">
+      <c r="J22" s="1"/>
+      <c r="K22" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="41" t="s">
+      <c r="L22" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="M20" s="49" t="s">
+      <c r="M22" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="50" t="s">
+      <c r="N22"/>
+      <c r="O22" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="P20" s="41" t="s">
+      <c r="P22" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Q20" s="49" t="s">
+      <c r="Q22" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="S20" s="65"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="66"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="66"/>
+      <c r="R22"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="52"/>
+      <c r="V22"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="28"/>
-      <c r="G21" s="48" t="s">
+      <c r="B23" s="63"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="19"/>
+      <c r="G23" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="I23" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="48" t="s">
+      <c r="J23" s="1"/>
+      <c r="K23" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="49" t="s">
+      <c r="M23" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O21" s="48" t="s">
+      <c r="O23" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="P23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Q21" s="49" t="s">
+      <c r="Q23" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="S21" s="64"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="63"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="63"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="49"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="49"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="28"/>
-      <c r="G22" s="46" t="s">
+      <c r="B24" s="63"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="19"/>
+      <c r="G24" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="49" t="s">
+      <c r="I24" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="47"/>
-      <c r="O22" s="46" t="s">
+      <c r="J24" s="1"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="33"/>
+      <c r="O24" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q22" s="49" t="s">
+      <c r="Q24" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="S22" s="58"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="59"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="59"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="45"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="45"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="28"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="46" t="s">
+      <c r="B25" s="63"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="19"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="47" t="s">
+      <c r="M25" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="O23" s="46"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="47"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="59"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="59"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="33"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="45"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="45"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="29"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="54"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="54"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="69"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="69"/>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="19"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="33"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="33"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="45"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="45"/>
     </row>
-    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="19"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="33"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="33"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="45"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="45"/>
     </row>
-    <row r="26" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="80" t="s">
+    <row r="28" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="20"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="40"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="40"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="55"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="55"/>
+    </row>
+    <row r="29" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="G30" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="44" t="s">
+      <c r="H30" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I30" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="43" t="s">
+      <c r="J30" s="1"/>
+      <c r="K30" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="L26" s="44" t="s">
+      <c r="L30" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="45" t="s">
+      <c r="M30" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O26" s="43" t="s">
+      <c r="O30" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="P26" s="44" t="s">
+      <c r="P30" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="Q26" s="45" t="s">
+      <c r="Q30" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="S26" s="55" t="s">
+      <c r="S30" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="T26" s="56" t="s">
+      <c r="T30" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="U26" s="57" t="s">
+      <c r="U30" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="W26" s="55" t="s">
+      <c r="W30" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="X26" s="56" t="s">
+      <c r="X30" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="Y26" s="57" t="s">
+      <c r="Y30" s="43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+    <row r="31" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="72"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="17"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="35"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="35"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="35"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="49"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="49"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="88" t="s">
+      <c r="B32" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="25"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="49"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="49"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="49"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="63"/>
-      <c r="W27" s="64"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="63"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="25"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="49"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="49"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="49"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="63"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="63"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="25"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="49"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="49"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="49"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="63"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="63"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="25"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="49"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="49"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="49"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="63"/>
-      <c r="W30" s="64"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="63"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="25"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="49"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="49"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="49"/>
-      <c r="S31" s="64"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="63"/>
-      <c r="W31" s="64"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="63"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="25"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="49"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="49"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="49"/>
-      <c r="S32" s="64"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="63"/>
-      <c r="W32" s="64"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="63"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="17"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="35"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="35"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="35"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="49"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="49"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="25"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="49"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="49"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="49"/>
-      <c r="S33" s="64"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="63"/>
-      <c r="W33" s="64"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="63"/>
+      <c r="A33" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="73"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="17"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="35"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="35"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="35"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="49"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="49"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="25"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="49"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="49"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="49"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="63"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="63"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="17"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="35"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="35"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="35"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="49"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="49"/>
     </row>
-    <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="26"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="54"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="54"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="54"/>
-      <c r="S35" s="67"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="69"/>
-      <c r="W35" s="67"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="69"/>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="17"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="35"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="35"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="35"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="49"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="49"/>
     </row>
-    <row r="36" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="18"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="40"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="40"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="40"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="55"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="55"/>
+    </row>
+    <row r="37" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="S3:Y24 S25:Y35" name="customEntities"/>
-    <protectedRange sqref="A27:A29" name="Questionnaire_3"/>
-    <protectedRange sqref="B9:B12" name="Contact Fields_2"/>
-    <protectedRange sqref="A30:Y35 E27:Y29" name="Questionnaire"/>
-    <protectedRange sqref="A24:Y24 B23:Y23 B13:H22 C9:H12 A6:Y8 I9:Y22" name="Contact Fields"/>
-    <protectedRange sqref="B27:D29" name="Questionnaire_2"/>
+    <protectedRange sqref="S35:Y36 S3:Y34" name="customEntities"/>
+    <protectedRange sqref="A32:A33" name="Questionnaire_3"/>
+    <protectedRange sqref="B11:B14" name="Contact Fields_2"/>
+    <protectedRange sqref="A35:Y36 E31:Y33 A34:Y34" name="Questionnaire"/>
+    <protectedRange sqref="C11:E14 A8:E10 B15:E27 W6:Y28 S6:U28 O6:Q28 K6:M28 G6:I28" name="Contact Fields"/>
+    <protectedRange sqref="B31:D33" name="Questionnaire_2"/>
+    <protectedRange sqref="A28:E28" name="Contact Fields_1"/>
+    <protectedRange sqref="A6:E7" name="Contact Fields_7_1"/>
   </protectedRanges>
-  <mergeCells count="13">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
+  <mergeCells count="10">
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="G3:I3"/>
@@ -3210,59 +3767,283 @@
     <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="I9:I22 B23:AG23 B13:K22 C9:K12 M12:P22 M9:AG11 R12:AG22 W6:Y8 A24:AG24">
-    <cfRule type="expression" dxfId="11" priority="31">
+  <conditionalFormatting sqref="G11:I24 M11:M24 M26 G26:I28 W26:Y28 W6:Y24 S26:U28 S11:U24 O26:P26 O27:Q28 O11:Q13 O14:P24 K26 K27:M28 K11:K24">
+    <cfRule type="expression" dxfId="67" priority="93">
       <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="32">
+    <cfRule type="expression" dxfId="66" priority="94">
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W27:Y35 S27:U35 O27:Q35 K27:M35 G27:I35">
-    <cfRule type="expression" dxfId="9" priority="29">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="30">
-      <formula>$D27="x"</formula>
+  <conditionalFormatting sqref="W31:Y31 S31:U31 O31:Q31 K31:M31 G31:I31 G34:I36 K34:M36 O34:Q36 S34:U36 W34:Y36">
+    <cfRule type="expression" dxfId="65" priority="91">
+      <formula>$C31="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="92">
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A23 B9:B12">
-    <cfRule type="expression" dxfId="7" priority="19">
+  <conditionalFormatting sqref="A11:B17 A20:B27">
+    <cfRule type="expression" dxfId="63" priority="47">
+      <formula>$C11="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="48">
+      <formula>$D11="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14:Q24 Q26">
+    <cfRule type="expression" dxfId="61" priority="73">
+      <formula>$C14="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="74">
+      <formula>$D14="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L24 L26">
+    <cfRule type="expression" dxfId="59" priority="71">
+      <formula>$C11="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="72">
+      <formula>$D11="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6:U10">
+    <cfRule type="expression" dxfId="57" priority="65">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="66">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:I25 W25:Y25 S25:U25 O25:Q25 K25:M25">
+    <cfRule type="expression" dxfId="55" priority="61">
+      <formula>$C25="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="62">
+      <formula>$D25="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W33:Y33 S33:U33 O33:Q33 K33:M33 G33:I33">
+    <cfRule type="expression" dxfId="53" priority="57">
+      <formula>$C33="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="58">
+      <formula>$D33="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W32:Y32 S32:U32 O32:Q32 K32:M32 G32:I32">
+    <cfRule type="expression" dxfId="51" priority="55">
+      <formula>$C32="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="56">
+      <formula>$D32="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:E17 C20:E27 C17:C18">
+    <cfRule type="expression" dxfId="49" priority="49">
+      <formula>$C11="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="50">
+      <formula>$D11="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:E10">
+    <cfRule type="expression" dxfId="47" priority="39">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="40">
+      <formula>$D10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E9">
+    <cfRule type="expression" dxfId="45" priority="35">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="36">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:B10">
+    <cfRule type="expression" dxfId="43" priority="37">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="38">
+      <formula>$D10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:E18">
+    <cfRule type="expression" dxfId="41" priority="51">
+      <formula>$C19="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="52">
+      <formula>$D18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B18">
+    <cfRule type="expression" dxfId="39" priority="53">
+      <formula>$C19="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="54">
+      <formula>$D18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:E19">
+    <cfRule type="expression" dxfId="37" priority="43">
+      <formula>$C20="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="44">
+      <formula>$D19="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:B19">
+    <cfRule type="expression" dxfId="35" priority="45">
+      <formula>$C20="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="46">
+      <formula>$D19="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="33" priority="33">
       <formula>$C9="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="20">
+    <cfRule type="expression" dxfId="32" priority="34">
       <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q22">
-    <cfRule type="expression" dxfId="5" priority="11">
-      <formula>$C12="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="12">
-      <formula>$D12="x"</formula>
+  <conditionalFormatting sqref="C8:C9">
+    <cfRule type="expression" dxfId="31" priority="31">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="32">
+      <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9:L22">
-    <cfRule type="expression" dxfId="3" priority="9">
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="29" priority="29">
       <formula>$C9="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="28" priority="30">
       <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6:U8">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="A8:A9">
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="28">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="25" priority="25">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="26">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>$C19="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>$D19="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:E28">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:I10">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:Q10 K6:M10">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E7">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C7">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:A7">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D24" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D28" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6:Y24 U6:U24 Q6:Q24 M6:M24 I6:I24 Y27:Y35 U27:U35 Q27:Q35 M27:M35 I27:I35" xr:uid="{A9584112-7768-4B1D-B7B8-C94A513C1665}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6:Y28 I6:I28 M6:M28 Q6:Q28 U6:U28 M31:M36 Q31:Q36 U31:U36 Y31:Y36 I31:I36" xr:uid="{A9584112-7768-4B1D-B7B8-C94A513C1665}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3273,21 +4054,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3496,15 +4268,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3521,7 +4294,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3538,4 +4311,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_MSDynamics_EN.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_MSDynamics_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96C8B8B-33DA-4DEE-8366-45A6E8A0763D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679A4D36-5DC2-46A0-9D33-9216A0EF79FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <t>CompanyName</t>
   </si>
   <si>
-    <t>WebsiteUrl</t>
-  </si>
-  <si>
     <t>EMailAdress1</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
     <t>Time of creation</t>
   </si>
   <si>
-    <t>WebsiteURL</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -250,6 +244,12 @@
   </si>
   <si>
     <t>Mandatory_field</t>
+  </si>
+  <si>
+    <t>WebSiteUrl</t>
+  </si>
+  <si>
+    <t>WebSiteURL</t>
   </si>
 </sst>
 </file>
@@ -2546,29 +2546,29 @@
   <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="10" max="10" width="1.6640625" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.6640625" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="18" max="18" width="1.6640625" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="1.5703125" customWidth="1"/>
+    <col min="22" max="22" width="1.5546875" customWidth="1"/>
     <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
@@ -2579,20 +2579,20 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G2" s="25"/>
       <c r="K2" s="25"/>
     </row>
-    <row r="3" spans="1:33" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="61.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="E3" s="16"/>
       <c r="G3" s="71" t="s">
@@ -2612,23 +2612,23 @@
       <c r="P3" s="71"/>
       <c r="Q3" s="71"/>
       <c r="S3" s="65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T3" s="66"/>
       <c r="U3" s="67"/>
       <c r="W3" s="68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X3" s="69"/>
       <c r="Y3" s="70"/>
     </row>
-    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="60" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="58"/>
@@ -2682,23 +2682,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" s="19"/>
       <c r="G6" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I6" s="33" t="s">
         <v>19</v>
@@ -2717,23 +2717,23 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="49"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="19"/>
       <c r="G7" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>19</v>
@@ -2752,7 +2752,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="49"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="63"/>
       <c r="C8" s="56"/>
@@ -2775,19 +2775,19 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="49"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="63"/>
       <c r="C9" s="56"/>
       <c r="D9" s="64"/>
       <c r="E9" s="19"/>
       <c r="G9" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>19</v>
@@ -2806,7 +2806,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="49"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -2843,9 +2843,9 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="49"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="63"/>
       <c r="C11" s="56"/>
@@ -2886,9 +2886,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="49"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="63"/>
       <c r="C12" s="56"/>
@@ -2923,9 +2923,9 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="49"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="63"/>
       <c r="C13" s="56"/>
@@ -2960,7 +2960,7 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="49"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -2997,7 +2997,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="49"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I15" s="35" t="s">
         <v>19</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="M15" s="35" t="s">
         <v>19</v>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Q15" s="35" t="s">
         <v>19</v>
@@ -3040,7 +3040,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="49"/>
     </row>
-    <row r="16" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>13</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16" s="35" t="s">
         <v>19</v>
@@ -3063,7 +3063,7 @@
         <v>13</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M16" s="35" t="s">
         <v>19</v>
@@ -3089,38 +3089,38 @@
       <c r="AF16"/>
       <c r="AG16"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="63"/>
       <c r="C17" s="56"/>
       <c r="D17" s="64"/>
       <c r="E17" s="19"/>
       <c r="G17" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="35" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M17" s="35" t="s">
         <v>19</v>
       </c>
       <c r="O17" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="35" t="s">
         <v>19</v>
@@ -3132,9 +3132,9 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="49"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="63"/>
       <c r="C18" s="56"/>
@@ -3169,7 +3169,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="49"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -3212,7 +3212,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="49"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>8</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="35" t="s">
         <v>19</v>
@@ -3234,7 +3234,7 @@
         <v>8</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M20" s="35" t="s">
         <v>19</v>
@@ -3243,7 +3243,7 @@
         <v>8</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q20" s="35" t="s">
         <v>19</v>
@@ -3255,7 +3255,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="49"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>9</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" s="35" t="s">
         <v>19</v>
@@ -3277,7 +3277,7 @@
         <v>9</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M21" s="35" t="s">
         <v>19</v>
@@ -3286,7 +3286,7 @@
         <v>9</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="35" t="s">
         <v>19</v>
@@ -3298,9 +3298,9 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="49"/>
     </row>
-    <row r="22" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="63"/>
       <c r="C22" s="56"/>
@@ -3311,7 +3311,7 @@
         <v>29</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="35" t="s">
         <v>19</v>
@@ -3321,7 +3321,7 @@
         <v>29</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M22" s="35" t="s">
         <v>19</v>
@@ -3331,7 +3331,7 @@
         <v>29</v>
       </c>
       <c r="P22" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q22" s="35" t="s">
         <v>19</v>
@@ -3353,7 +3353,7 @@
       <c r="AF22"/>
       <c r="AG22"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>11</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I23" s="35" t="s">
         <v>19</v>
@@ -3375,7 +3375,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M23" s="35" t="s">
         <v>19</v>
@@ -3384,7 +3384,7 @@
         <v>11</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="35" t="s">
         <v>19</v>
@@ -3396,7 +3396,7 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="49"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I24" s="35" t="s">
         <v>19</v>
@@ -3421,7 +3421,7 @@
         <v>10</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q24" s="35" t="s">
         <v>19</v>
@@ -3433,9 +3433,9 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="45"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="63"/>
       <c r="C25" s="56"/>
@@ -3446,10 +3446,10 @@
       <c r="I25" s="33"/>
       <c r="J25" s="1"/>
       <c r="K25" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="M25" s="33" t="s">
         <v>19</v>
@@ -3464,7 +3464,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="45"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="63"/>
       <c r="C26" s="56"/>
@@ -3487,7 +3487,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="45"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="63"/>
       <c r="C27" s="56"/>
@@ -3510,7 +3510,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="45"/>
     </row>
-    <row r="28" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="11"/>
       <c r="C28" s="57"/>
@@ -3533,14 +3533,14 @@
       <c r="X28" s="54"/>
       <c r="Y28" s="55"/>
     </row>
-    <row r="29" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="62" t="s">
         <v>18</v>
       </c>
@@ -3599,9 +3599,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B31" s="72"/>
       <c r="C31" s="73"/>
@@ -3623,12 +3623,12 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="49"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="74"/>
@@ -3649,9 +3649,9 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="49"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="72" t="s">
         <v>30</v>
@@ -3675,7 +3675,7 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="49"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
@@ -3697,7 +3697,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="49"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="72"/>
       <c r="C35" s="73"/>
@@ -3719,7 +3719,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="49"/>
     </row>
-    <row r="36" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="14"/>
       <c r="B36" s="75"/>
       <c r="C36" s="76"/>
@@ -3741,14 +3741,14 @@
       <c r="X36" s="54"/>
       <c r="Y36" s="55"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="S35:Y36 S3:Y34" name="customEntities"/>
+    <protectedRange sqref="S3:Y36" name="customEntities"/>
     <protectedRange sqref="A32:A33" name="Questionnaire_3"/>
     <protectedRange sqref="B11:B14" name="Contact Fields_2"/>
-    <protectedRange sqref="A35:Y36 E31:Y33 A34:Y34" name="Questionnaire"/>
+    <protectedRange sqref="E31:Y33 A34:Y36" name="Questionnaire"/>
     <protectedRange sqref="C11:E14 A8:E10 B15:E27 W6:Y28 S6:U28 O6:Q28 K6:M28 G6:I28" name="Contact Fields"/>
     <protectedRange sqref="B31:D33" name="Questionnaire_2"/>
     <protectedRange sqref="A28:E28" name="Contact Fields_1"/>
@@ -4054,12 +4054,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -4268,7 +4262,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4277,24 +4271,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4313,10 +4296,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_MSDynamics_EN.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_MSDynamics_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679A4D36-5DC2-46A0-9D33-9216A0EF79FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CE05B1-909C-4951-B968-C7DEDEC5AD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="71">
   <si>
     <t>Website</t>
   </si>
@@ -144,9 +144,6 @@
     <t>CompanyName</t>
   </si>
   <si>
-    <t>EMailAdress1</t>
-  </si>
-  <si>
     <t>Telephone1</t>
   </si>
   <si>
@@ -249,7 +246,7 @@
     <t>WebSiteUrl</t>
   </si>
   <si>
-    <t>WebSiteURL</t>
+    <t>EMailAddress1</t>
   </si>
 </sst>
 </file>
@@ -2545,30 +2542,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.6640625" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="1.5546875" customWidth="1"/>
+    <col min="22" max="22" width="1.5703125" customWidth="1"/>
     <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
@@ -2579,20 +2576,20 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" s="25"/>
       <c r="K2" s="25"/>
     </row>
-    <row r="3" spans="1:33" ht="61.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="E3" s="16"/>
       <c r="G3" s="71" t="s">
@@ -2612,23 +2609,23 @@
       <c r="P3" s="71"/>
       <c r="Q3" s="71"/>
       <c r="S3" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T3" s="66"/>
       <c r="U3" s="67"/>
       <c r="W3" s="68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X3" s="69"/>
       <c r="Y3" s="70"/>
     </row>
-    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="58"/>
@@ -2682,23 +2679,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="19"/>
       <c r="G6" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="I6" s="33" t="s">
         <v>19</v>
@@ -2717,23 +2714,23 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="49"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="19"/>
       <c r="G7" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>19</v>
@@ -2752,7 +2749,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="49"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="63"/>
       <c r="C8" s="56"/>
@@ -2775,19 +2772,19 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="49"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="63"/>
       <c r="C9" s="56"/>
       <c r="D9" s="64"/>
       <c r="E9" s="19"/>
       <c r="G9" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>19</v>
@@ -2806,7 +2803,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="49"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -2843,9 +2840,9 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="49"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="63"/>
       <c r="C11" s="56"/>
@@ -2886,9 +2883,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="49"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="63"/>
       <c r="C12" s="56"/>
@@ -2923,9 +2920,9 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="49"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="63"/>
       <c r="C13" s="56"/>
@@ -2960,7 +2957,7 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="49"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -2997,7 +2994,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="49"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -3009,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="35" t="s">
         <v>19</v>
@@ -3019,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M15" s="35" t="s">
         <v>19</v>
@@ -3028,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q15" s="35" t="s">
         <v>19</v>
@@ -3040,7 +3037,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="49"/>
     </row>
-    <row r="16" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -3053,7 +3050,7 @@
         <v>13</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I16" s="35" t="s">
         <v>19</v>
@@ -3063,7 +3060,7 @@
         <v>13</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="M16" s="35" t="s">
         <v>19</v>
@@ -3089,38 +3086,38 @@
       <c r="AF16"/>
       <c r="AG16"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="63"/>
       <c r="C17" s="56"/>
       <c r="D17" s="64"/>
       <c r="E17" s="19"/>
       <c r="G17" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="35" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M17" s="35" t="s">
         <v>19</v>
       </c>
       <c r="O17" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="35" t="s">
         <v>19</v>
@@ -3132,9 +3129,9 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="49"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="63"/>
       <c r="C18" s="56"/>
@@ -3169,7 +3166,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="49"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -3212,7 +3209,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="49"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -3224,7 +3221,7 @@
         <v>8</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I20" s="35" t="s">
         <v>19</v>
@@ -3234,7 +3231,7 @@
         <v>8</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M20" s="35" t="s">
         <v>19</v>
@@ -3243,7 +3240,7 @@
         <v>8</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="35" t="s">
         <v>19</v>
@@ -3255,7 +3252,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="49"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -3267,7 +3264,7 @@
         <v>9</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I21" s="35" t="s">
         <v>19</v>
@@ -3277,7 +3274,7 @@
         <v>9</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M21" s="35" t="s">
         <v>19</v>
@@ -3286,7 +3283,7 @@
         <v>9</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q21" s="35" t="s">
         <v>19</v>
@@ -3298,9 +3295,9 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="49"/>
     </row>
-    <row r="22" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="63"/>
       <c r="C22" s="56"/>
@@ -3311,7 +3308,7 @@
         <v>29</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="35" t="s">
         <v>19</v>
@@ -3321,7 +3318,7 @@
         <v>29</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M22" s="35" t="s">
         <v>19</v>
@@ -3331,7 +3328,7 @@
         <v>29</v>
       </c>
       <c r="P22" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q22" s="35" t="s">
         <v>19</v>
@@ -3353,7 +3350,7 @@
       <c r="AF22"/>
       <c r="AG22"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -3365,7 +3362,7 @@
         <v>11</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I23" s="35" t="s">
         <v>19</v>
@@ -3375,7 +3372,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M23" s="35" t="s">
         <v>19</v>
@@ -3384,7 +3381,7 @@
         <v>11</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q23" s="35" t="s">
         <v>19</v>
@@ -3396,7 +3393,7 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="49"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -3408,7 +3405,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I24" s="35" t="s">
         <v>19</v>
@@ -3421,7 +3418,7 @@
         <v>10</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q24" s="35" t="s">
         <v>19</v>
@@ -3433,9 +3430,9 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="45"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="63"/>
       <c r="C25" s="56"/>
@@ -3446,10 +3443,10 @@
       <c r="I25" s="33"/>
       <c r="J25" s="1"/>
       <c r="K25" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="M25" s="33" t="s">
         <v>19</v>
@@ -3464,7 +3461,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="45"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="63"/>
       <c r="C26" s="56"/>
@@ -3487,7 +3484,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="45"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="63"/>
       <c r="C27" s="56"/>
@@ -3510,7 +3507,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="45"/>
     </row>
-    <row r="28" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="11"/>
       <c r="C28" s="57"/>
@@ -3533,14 +3530,14 @@
       <c r="X28" s="54"/>
       <c r="Y28" s="55"/>
     </row>
-    <row r="29" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="62" t="s">
         <v>18</v>
       </c>
@@ -3599,9 +3596,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="72"/>
       <c r="C31" s="73"/>
@@ -3623,12 +3620,12 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="49"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="74"/>
@@ -3649,9 +3646,9 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="49"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="72" t="s">
         <v>30</v>
@@ -3675,7 +3672,7 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="49"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
@@ -3697,7 +3694,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="49"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="72"/>
       <c r="C35" s="73"/>
@@ -3719,7 +3716,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="49"/>
     </row>
-    <row r="36" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="75"/>
       <c r="C36" s="76"/>
@@ -3741,7 +3738,7 @@
       <c r="X36" s="54"/>
       <c r="Y36" s="55"/>
     </row>
-    <row r="37" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0"/>
   <protectedRanges>
@@ -4054,6 +4051,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -4262,22 +4274,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4294,29 +4316,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_MSDynamics_EN.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_MSDynamics_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CE05B1-909C-4951-B968-C7DEDEC5AD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A979451E-F1A4-417F-9591-8344E9B6C9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -2542,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_MSDynamics_EN.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_MSDynamics_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A979451E-F1A4-417F-9591-8344E9B6C9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EF439D-7F91-4DD5-9877-F6A89CC0B0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1183,6 +1183,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1203,24 +1221,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2542,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I36" activeCellId="9" sqref="I6:I28 M6:M28 Q6:Q28 U6:U28 Y6:Y28 Y31:Y36 U31:U36 Q31:Q36 M31:M36 I31:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2592,32 +2592,32 @@
         <v>54</v>
       </c>
       <c r="E3" s="16"/>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="71" t="s">
+      <c r="K3" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="O3" s="71" t="s">
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="O3" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="S3" s="65" t="s">
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="S3" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="T3" s="66"/>
-      <c r="U3" s="67"/>
-      <c r="W3" s="68" t="s">
+      <c r="T3" s="72"/>
+      <c r="U3" s="73"/>
+      <c r="W3" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="70"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="76"/>
     </row>
     <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3600,9 +3600,9 @@
       <c r="A31" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="74"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="17"/>
       <c r="G31" s="34"/>
       <c r="H31" s="3"/>
@@ -3624,11 +3624,11 @@
       <c r="A32" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
       <c r="E32" s="17"/>
       <c r="G32" s="34"/>
       <c r="H32" s="3"/>
@@ -3650,11 +3650,11 @@
       <c r="A33" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="74"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
       <c r="E33" s="17"/>
       <c r="G33" s="34"/>
       <c r="H33" s="3"/>
@@ -3696,9 +3696,9 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="74"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="17"/>
       <c r="G35" s="34"/>
       <c r="H35" s="3"/>
@@ -3718,9 +3718,9 @@
     </row>
     <row r="36" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="77"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="70"/>
       <c r="E36" s="18"/>
       <c r="G36" s="38"/>
       <c r="H36" s="39"/>
@@ -3752,16 +3752,16 @@
     <protectedRange sqref="A6:E7" name="Contact Fields_7_1"/>
   </protectedRanges>
   <mergeCells count="10">
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G11:I24 M11:M24 M26 G26:I28 W26:Y28 W6:Y24 S26:U28 S11:U24 O26:P26 O27:Q28 O11:Q13 O14:P24 K26 K27:M28 K11:K24">
@@ -4040,8 +4040,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D28" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6:Y28 I6:I28 M6:M28 Q6:Q28 U6:U28 M31:M36 Q31:Q36 U31:U36 Y31:Y36 I31:I36" xr:uid="{A9584112-7768-4B1D-B7B8-C94A513C1665}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I28 M6:M28 Q6:Q28 U6:U28 Y6:Y28 Y31:Y36 U31:U36 Q31:Q36 M31:M36 I31:I36" xr:uid="{32EC4A38-0A29-4468-B96F-1B22D1EF0DCE}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4051,18 +4051,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4275,14 +4275,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -4295,6 +4287,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
